--- a/medicine/Mort/Cimetière_militaire_belge_de_Halen/Cimetière_militaire_belge_de_Halen.xlsx
+++ b/medicine/Mort/Cimetière_militaire_belge_de_Halen/Cimetière_militaire_belge_de_Halen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_de_Halen</t>
+          <t>Cimetière_militaire_belge_de_Halen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire belge de Halen est un cimetière militaire situé Liniestraat dans la ville belge de Halen.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_de_Halen</t>
+          <t>Cimetière_militaire_belge_de_Halen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ce cimetière d’une superficie de 55 ares, reposent les corps de 181 soldats belges tombés lors de la bataille des casques d'argent qui eut lieu à proximité le 12 août 1914. Derrière le cimetière se trouve un monument à la mémoire des victimes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_belge_de_Halen</t>
+          <t>Cimetière_militaire_belge_de_Halen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(nl) Adjudant-major Rudy Laforce, Verbroedering van de Genie van het Cavaleriekorps en de Gepantserde Genie, no 129, 53e année, 2e trimestre 2004.
 (nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Belgische militaire begraafplaats van Halen » (voir la liste des auteurs).
